--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1769705003747989</v>
+        <v>0.114240278957434</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1626503076074951</v>
+        <v>0.1319842427042382</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1406157940581375</v>
+        <v>0.1275661777193576</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1695084968110318</v>
+        <v>0.1224729088943938</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8869590105148384</v>
+        <v>0.823384228692924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8664553594854499</v>
+        <v>0.8371462253089664</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8475021015645239</v>
+        <v>0.8340561409271716</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8765873046932618</v>
+        <v>0.8302081992751352</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.95415155131983</v>
+        <v>0.9268365395461761</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9577207394572539</v>
+        <v>0.9446030319826544</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9476345976526908</v>
+        <v>0.9417055920975097</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.955932813810376</v>
+        <v>0.9356354527572753</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9671536188280823</v>
+        <v>0.9516740480749186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9738144342130267</v>
+        <v>0.9663681350219352</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9694573448699277</v>
+        <v>0.9661522345480682</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.970472597568511</v>
+        <v>0.958964805979447</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9812075029968451</v>
+        <v>0.9719687648602084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9834545514340374</v>
+        <v>0.9790536128026933</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9794882796418938</v>
+        <v>0.9775766803210701</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9823297422039382</v>
+        <v>0.9754983250450222</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9837831054885879</v>
+        <v>0.9758503296683997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.988089630403274</v>
+        <v>0.9843440120823432</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9864376726717075</v>
+        <v>0.9848158092273707</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9859316652700172</v>
+        <v>0.9800787689650577</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9841147750691875</v>
+        <v>0.9768913609144124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9892940816854541</v>
+        <v>0.9859031358917224</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9905155250147771</v>
+        <v>0.989038663551883</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9866976317074535</v>
+        <v>0.9813765605296363</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9845463887808317</v>
+        <v>0.9776602304717001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9901823850769105</v>
+        <v>0.9869589618210288</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9915167002008071</v>
+        <v>0.9901086542595585</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9873563441903769</v>
+        <v>0.9822875902520298</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9865303681604258</v>
+        <v>0.9801168571784792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9914206505995166</v>
+        <v>0.9884209011450127</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9931769937702086</v>
+        <v>0.9918639405571429</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9889694640173441</v>
+        <v>0.9842513643475377</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9867530960544443</v>
+        <v>0.9822527546807613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.991756465973088</v>
+        <v>0.9896495370888032</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9937008018522033</v>
+        <v>0.9927653984475014</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9892484546075099</v>
+        <v>0.9859372728875704</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.988446245754437</v>
+        <v>0.984487533710329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9937796955354351</v>
+        <v>0.9919138137074454</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9960417577982186</v>
+        <v>0.9952100878240664</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9911057954571902</v>
+        <v>0.9881867216756457</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9902605574105084</v>
+        <v>0.9902032536763187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9947425776893355</v>
+        <v>0.994712791804368</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9967363487695015</v>
+        <v>0.9967212025764984</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9924965074808914</v>
+        <v>0.9924529001221413</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9957519292210085</v>
+        <v>0.9957439228093178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9974146698092735</v>
+        <v>0.9974112091235358</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.998188327742381</v>
+        <v>0.9981865174212284</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9965826059689356</v>
+        <v>0.9965768686188874</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4227,7 +4227,7 @@
         <v>0.9974709187572375</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9983381133599588</v>
+        <v>0.998338090335401</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
@@ -4265,7 +4265,7 @@
         <v>0.9974709187572375</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9983625693654501</v>
+        <v>0.9983625466036312</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
@@ -4833,40 +4833,40 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>8.21183670328783</v>
+        <v>8.220588571803411</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.158037571799859</v>
+        <v>1.158060901670739</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.02580464626071</v>
+        <v>1.025807935674416</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.033051988854723</v>
+        <v>1.03305609611411</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.01860510720992</v>
+        <v>1.018607345223953</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.006706677450866</v>
+        <v>1.006707469461923</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.024766226298252</v>
+        <v>1.024769131527252</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.002776550989152</v>
+        <v>1.002776868823005</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000517471422133</v>
+        <v>1.000517530493438</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000085543340393</v>
+        <v>1.000085553100436</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.004081495109462</v>
+        <v>1.004081960746605</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.00028327082619</v>
+        <v>1.000283303011746</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>1</v>
@@ -5544,10 +5544,10 @@
         <v>1.017139261573388</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000027019546128</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5613,13 +5613,13 @@
         <v>1.005909867227216</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.000763211734554</v>
+        <v>1.010202771845445</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000183456764255</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5688,7 +5688,7 @@
         <v>1.004418954720617</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.005256516393418</v>
+        <v>1.006002257605631</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5763,7 +5763,7 @@
         <v>1.00074011707509</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.000124022377467</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5832,10 +5832,10 @@
         <v>1.00035249143304</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.000703730915376</v>
+        <v>1.000997767504616</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>1.001770857261085</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5904,10 +5904,10 @@
         <v>1.0011550891351</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.005941680170871</v>
+        <v>1.006856078623498</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>1.005843559224774</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5976,10 +5976,10 @@
         <v>1.00003563492149</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.000210822891012</v>
+        <v>1.000552035157009</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>1.000577610846258</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6048,10 +6048,10 @@
         <v>1.002068455413247</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.00097663388626</v>
+        <v>1.001860111181365</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.000686221610747</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6117,13 +6117,13 @@
         <v>1.014426369033392</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.040840485861112</v>
+        <v>1.055248094704576</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.006211934613254</v>
+        <v>1.006742410717653</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.001370696296485</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6189,13 +6189,13 @@
         <v>1.204264427339173</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.007633120555869</v>
+        <v>1.010159942015197</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.001584021238793</v>
+        <v>1.002115024638717</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.003330504655093</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>5.898676670488602</v>
+        <v>5.866076431277528</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.141670198134756</v>
+        <v>1.142779278338995</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.040946388532168</v>
+        <v>1.045613280871615</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v>1.006639973135892</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>6.943367955576115</v>
+        <v>7.079713785525055</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.11665059614977</v>
+        <v>1.137075390300173</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v>1.033108216686583</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6.969389812201537</v>
+        <v>7.198016038883937</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v>1.105804759747026</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1</v>
+        <v>7.333782535772895</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1321866617521104</v>
+        <v>0.1266568571276925</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1406157940581375</v>
+        <v>0.1275661777193576</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1626503076074951</v>
+        <v>0.1319842427042382</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1769705003747989</v>
+        <v>0.114240278957434</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1227484135912654</v>
+        <v>0.116473529450802</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1355297471939653</v>
+        <v>0.122388215115971</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1627016526819542</v>
+        <v>0.1300868924426981</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1763512987127655</v>
+        <v>0.1137420977116102</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1695084968110318</v>
+        <v>0.1224729088943938</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.155654401761478</v>
+        <v>6.373271704995705</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.027076170505604</v>
+        <v>6.538223186102464</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.327105569184444</v>
+        <v>6.342774017235654</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>5.011903162597059</v>
+        <v>7.207477399453111</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.657381149443622</v>
+        <v>6.947594463430957</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>6.241846012187277</v>
+        <v>6.797358874953372</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>5.30633853665233</v>
+        <v>6.417364262184524</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>4.970919255925884</v>
+        <v>7.203837453393962</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>5.169504365890751</v>
+        <v>6.775125708344383</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8136954062685342</v>
+        <v>0.8072185637756063</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8475021015645239</v>
+        <v>0.8340561409271716</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8664553594854499</v>
+        <v>0.8371462253089664</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8869590105148384</v>
+        <v>0.823384228692924</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.8171829747665994</v>
+        <v>0.8092108483486546</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8459558120554024</v>
+        <v>0.8319166202082477</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8633500496032763</v>
+        <v>0.8348149745404124</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8766280665788234</v>
+        <v>0.8193795835224934</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8765873046932618</v>
+        <v>0.8302081992751352</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.144879423220108</v>
+        <v>1.14991750749268</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.118150144882612</v>
+        <v>1.12906739233485</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.105331889257402</v>
+        <v>1.128360856711776</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.075756083436132</v>
+        <v>1.125642813219141</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.142496572116342</v>
+        <v>1.148285752296912</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.120291011070033</v>
+        <v>1.130902563911839</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.107827614172148</v>
+        <v>1.129050719855759</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.086106931428175</v>
+        <v>1.128553142795398</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.090543986346767</v>
+        <v>1.127001834965458</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.9315831274055705</v>
+        <v>0.9282347588586659</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9476345976526908</v>
+        <v>0.9417055920975097</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9577207394572539</v>
+        <v>0.9446030319826544</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.95415155131983</v>
+        <v>0.9268365395461761</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.9336287474626748</v>
+        <v>0.9292052877628574</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9477166920081174</v>
+        <v>0.9408166387543786</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9564430256474031</v>
+        <v>0.9425484479512199</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9521118193957401</v>
+        <v>0.9247134041266942</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.955932813810376</v>
+        <v>0.9356354527572753</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.03236677553259</v>
+        <v>1.033755192069408</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.023028651836153</v>
+        <v>1.025959963130417</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.01680416231238</v>
+        <v>1.023041534170812</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.013626836837678</v>
+        <v>1.026798154225668</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.03122155333806</v>
+        <v>1.03314084952373</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.022665044330439</v>
+        <v>1.026023538537552</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.017797467711484</v>
+        <v>1.02451445612571</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.016193169696012</v>
+        <v>1.029627146524465</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.015215499575029</v>
+        <v>1.02491984419824</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.961735469380255</v>
+        <v>0.9595675014294409</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9694573448699277</v>
+        <v>0.9661522345480682</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9738144342130267</v>
+        <v>0.9663681350219352</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9671536188280823</v>
+        <v>0.9516740480749186</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.9627780871995271</v>
+        <v>0.9599999403812602</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9691967328451787</v>
+        <v>0.9653000168097738</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9734652895142365</v>
+        <v>0.9656545105248759</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9675295276567942</v>
+        <v>0.9521100236438924</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.970472597568511</v>
+        <v>0.958964805979447</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.013153893081898</v>
+        <v>1.013904781057746</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.010346958352574</v>
+        <v>1.011824684935233</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.00989933696023</v>
+        <v>1.013126961994116</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.01453118087465</v>
+        <v>1.021325281304395</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.012513475168864</v>
+        <v>1.013592609800797</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.010171054517004</v>
+        <v>1.011969269965277</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.00988707354456</v>
+        <v>1.013483504441107</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.014141502366635</v>
+        <v>1.021334364159729</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.01221525891744</v>
+        <v>1.017226121649256</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9743860349175516</v>
+        <v>0.9729100774469456</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9794882796418938</v>
+        <v>0.9775766803210701</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9834545514340374</v>
+        <v>0.9790536128026933</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9812075029968451</v>
+        <v>0.9719687648602084</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9748257868868245</v>
+        <v>0.9730488449796515</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9790544856526492</v>
+        <v>0.9768539533084567</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9830900124247407</v>
+        <v>0.9786749174061135</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.981211848761942</v>
+        <v>0.972422685608439</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9823297422039382</v>
+        <v>0.9754983250450222</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.008745090051387</v>
+        <v>1.008915330176187</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.007094922087638</v>
+        <v>1.007405177570237</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.004713058638529</v>
+        <v>1.005403584860389</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.002624931509264</v>
+        <v>1.003993507763338</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.008511711950932</v>
+        <v>1.008715039254802</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.007381183764446</v>
+        <v>1.00770293216107</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.004792566860537</v>
+        <v>1.005436063653786</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.002760130008834</v>
+        <v>1.004047123595331</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.003668995073896</v>
+        <v>1.004698546311864</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9829071285377194</v>
+        <v>0.981583892019125</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9864376726717075</v>
+        <v>0.9848158092273707</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.988089630403274</v>
+        <v>0.9843440120823432</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9837831054885879</v>
+        <v>0.9758503296683997</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.983123223187146</v>
+        <v>0.9815290038604888</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9862810667266563</v>
+        <v>0.9843785930420648</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9878015370392125</v>
+        <v>0.9839950565534967</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9839201210307331</v>
+        <v>0.9763582004040002</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9859316652700172</v>
+        <v>0.9800787689650577</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.004498236887433</v>
+        <v>1.004591543934743</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004133917890651</v>
+        <v>1.004287963581561</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.001218969661374</v>
+        <v>1.001583921667874</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000337136894046</v>
+        <v>1.001066793968668</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.004356863752093</v>
+        <v>1.004482139618906</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.003864285462747</v>
+        <v>1.004052133262046</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.001200150422885</v>
+        <v>1.001575846021483</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.000337422935917</v>
+        <v>1.001088814133113</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.00077805327771</v>
+        <v>1.001325357818271</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9873284776402285</v>
+        <v>0.9860908775849669</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9905155250147771</v>
+        <v>0.989038663551883</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9892940816854541</v>
+        <v>0.9859031358917224</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9841147750691875</v>
+        <v>0.9768913609144124</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9874065571220905</v>
+        <v>0.9859283538957976</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9900923383149903</v>
+        <v>0.9883674262813763</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9889870474716164</v>
+        <v>0.9855456812485257</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9842521182466787</v>
+        <v>0.9774212730115809</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9866976317074535</v>
+        <v>0.9813765605296363</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.003675351640605</v>
+        <v>1.003722484384117</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.001010761730378</v>
+        <v>1.001081849220973</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.000897916411208</v>
+        <v>1.001070922579378</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.000438580664144</v>
+        <v>1.000787057382274</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.00334776988563</v>
+        <v>1.003408378068321</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.001098020735822</v>
+        <v>1.001183640225551</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.000898124190634</v>
+        <v>1.001069363170091</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000455304008704</v>
+        <v>1.000797781967618</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.000668248537676</v>
+        <v>1.000928989980826</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.990957256980339</v>
+        <v>0.9897615854780968</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9915167002008071</v>
+        <v>0.9901086542595585</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9901823850769105</v>
+        <v>0.9869589618210288</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9845463887808317</v>
+        <v>0.9776602304717001</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9907121670588976</v>
+        <v>0.9892887704741518</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9911794802328386</v>
+        <v>0.9895372977247471</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.989875280663174</v>
+        <v>0.986599587502495</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.984700252181692</v>
+        <v>0.9782010420779561</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9873563441903769</v>
+        <v>0.9822875902520298</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.001920184150422</v>
+        <v>1.001989695963658</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.001674498845118</v>
+        <v>1.001772821891853</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001250542870958</v>
+        <v>1.001481256445847</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.002015120264725</v>
+        <v>1.002512761213161</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.001990912335828</v>
+        <v>1.002084182781624</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.001791425775244</v>
+        <v>1.001915759883484</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.001338008286291</v>
+        <v>1.001586676502772</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.002098057201304</v>
+        <v>1.002595393634266</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.001632831567842</v>
+        <v>1.001997008829504</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9928600773989379</v>
+        <v>0.9917309101097067</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9931769937702086</v>
+        <v>0.9918639405571429</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9914206505995166</v>
+        <v>0.9884209011450127</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9865303681604258</v>
+        <v>0.9801168571784792</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9926845881335498</v>
+        <v>0.9913506290956279</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9929551047016205</v>
+        <v>0.9914330135829396</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9911997419910961</v>
+        <v>0.9881650018856302</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9867662096369072</v>
+        <v>0.980739858835597</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9889694640173441</v>
+        <v>0.9842513643475377</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000563038355189</v>
+        <v>1.000852979226626</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000527406580378</v>
+        <v>1.000908852367243</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000338721382663</v>
+        <v>1.001243029100626</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.000225768918228</v>
+        <v>1.002179227391753</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.000542062940118</v>
+        <v>1.000951239932472</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.000508509792797</v>
+        <v>1.001019976110631</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000349023745519</v>
+        <v>1.001371956381188</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.000234576971792</v>
+        <v>1.00228044224313</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000282245150445</v>
+        <v>1.001711128246189</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9934190957038492</v>
+        <v>0.9925768359744328</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9937008018522033</v>
+        <v>0.9927653984475014</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.991756465973088</v>
+        <v>0.9896495370888032</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9867530960544443</v>
+        <v>0.9822527546807613</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9932226856600029</v>
+        <v>0.9922936414011052</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9934600320961688</v>
+        <v>0.9924442515720855</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9915456942376033</v>
+        <v>0.9895207211656341</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9869976822662304</v>
+        <v>0.9829763794392072</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9892484546075099</v>
+        <v>0.9859372728875704</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.00232908610925</v>
+        <v>1.002417589599673</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002355795569101</v>
+        <v>1.002462504616285</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002040046757207</v>
+        <v>1.002287958043514</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.001715879794817</v>
+        <v>1.002275156795355</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.002327950412723</v>
+        <v>1.002454440914232</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.002341194568176</v>
+        <v>1.0024887660066</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.001962546225084</v>
+        <v>1.002257689101932</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.001719690598569</v>
+        <v>1.002309976352264</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.001877963276012</v>
+        <v>1.002281557419434</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.995732854320317</v>
+        <v>0.9949764794099605</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9960417577982186</v>
+        <v>0.9952100878240664</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9937796955354351</v>
+        <v>0.9919138137074454</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.988446245754437</v>
+        <v>0.984487533710329</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9955348588210107</v>
+        <v>0.9947291675134919</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9957859153270128</v>
+        <v>0.9949142130888438</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9934916484968278</v>
+        <v>0.9917547513139456</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9886950129012331</v>
+        <v>0.9852470316305458</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9911057954571902</v>
+        <v>0.9881867216756457</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001007794856653</v>
+        <v>1.001753532071002</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000697351256456</v>
+        <v>1.001518387696146</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000968909063273</v>
+        <v>1.002821795662328</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.001835518789074</v>
+        <v>1.005805781962975</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001052882211092</v>
+        <v>1.001845942929378</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000800497802894</v>
+        <v>1.001659608111275</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001122946681288</v>
+        <v>1.00284116729805</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.002006576042658</v>
+        <v>1.005443017276181</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001402213926173</v>
+        <v>1.004313788812651</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9967363487695015</v>
+        <v>0.9967212025764984</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9967363487695015</v>
+        <v>0.9967212025764984</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9947425776893355</v>
+        <v>0.994712791804368</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9902605574105084</v>
+        <v>0.9902032536763187</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9965830397643852</v>
+        <v>0.9965653807869091</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9965830397643852</v>
+        <v>0.9965653807869091</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9946072866463951</v>
+        <v>0.9945724924810647</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9906789046276155</v>
+        <v>0.990609748245017</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9924965074808914</v>
+        <v>0.9924529001221413</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001456733242118</v>
+        <v>1.001470135119974</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001456733242118</v>
+        <v>1.001470135119974</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.002686214684954</v>
+        <v>1.00271276024738</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.005545380727735</v>
+        <v>1.005595486696724</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001762259081758</v>
+        <v>1.001777549827576</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001762259081758</v>
+        <v>1.001777549827576</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.003124150286808</v>
+        <v>1.003154726414184</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.005713087191129</v>
+        <v>1.005774239445881</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.004115797706344</v>
+        <v>1.004154123472052</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.998188327742381</v>
+        <v>0.9981865174212284</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.998188327742381</v>
+        <v>0.9981865174212284</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9974146698092735</v>
+        <v>0.9974112091235358</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9957519292210085</v>
+        <v>0.9957439228093178</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9983392772769364</v>
+        <v>0.9983368254076951</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9983392772769364</v>
+        <v>0.9983368254076951</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9977145892862325</v>
+        <v>0.9977100965939151</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9963387395881657</v>
+        <v>0.9963297661288073</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9965826059689356</v>
+        <v>0.9965768686188874</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000150057472538</v>
+        <v>1.000151848288398</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000150057472538</v>
+        <v>1.000151848288398</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000056394747006</v>
+        <v>1.00005986461066</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v>1.000008040633247</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000150024732893</v>
+        <v>1.000152481055269</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000150024732893</v>
+        <v>1.000152481055269</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000056390590584</v>
+        <v>1.000060893848272</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v>1.000009006515376</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000028197373503</v>
+        <v>1.000033952621953</v>
       </c>
     </row>
     <row r="15">
@@ -7535,10 +7535,10 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9983381133599588</v>
+        <v>0.998338090335401</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9983381133599588</v>
+        <v>0.998338090335401</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>0.9974709187572375</v>
@@ -7566,10 +7566,10 @@
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000024496716257</v>
+        <v>1.000024496979998</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000024496716257</v>
+        <v>1.000024496979998</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9983625693654501</v>
+        <v>0.9983625466036312</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9983625693654501</v>
+        <v>0.9983625466036312</v>
       </c>
       <c r="D16" s="34" t="n">
         <v>0.9974709187572375</v>
@@ -7630,10 +7630,10 @@
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.001640116211078</v>
+        <v>1.001640139047623</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.001640116211078</v>
+        <v>1.001640139047623</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1.002535493712352</v>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>13126.29</v>
+        <v>13110.38</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>107790.95</v>
+        <v>107775.04</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>124825.97</v>
+        <v>124810.06</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>128047.06</v>
+        <v>128031.15</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>132279.27</v>
+        <v>132263.36</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>134740.34</v>
+        <v>134724.43</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>135644</v>
+        <v>135628.09</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>139003.39</v>
+        <v>138987.48</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>139389.3400000001</v>
+        <v>139373.4300000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>139461.4700000001</v>
+        <v>139445.5600000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>139473.4000000001</v>
+        <v>139457.49</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>140042.6600000001</v>
+        <v>140026.7500000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>140066.4200000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>95486.43000000001</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9787,10 +9787,10 @@
         <v>95486.43000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>95486.43000000001</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>95486.43000000001</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>112426.78</v>
+        <v>113508.05</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9908,13 +9908,13 @@
         <v>112341.04</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>112426.78</v>
+        <v>113487.23</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>112426.78</v>
+        <v>113508.05</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>112426.78</v>
+        <v>113508.05</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>83845.37999999998</v>
+        <v>83907.57999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -10038,10 +10038,10 @@
         <v>83406.94999999998</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>83845.37999999998</v>
+        <v>83907.57999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>83845.37999999998</v>
+        <v>83907.57999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>89822.5</v>
+        <v>89833.64</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10174,7 +10174,7 @@
         <v>89822.5</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>89822.5</v>
+        <v>89833.64</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>79774.07000000002</v>
+        <v>79938.82000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10304,10 +10304,10 @@
         <v>79717.97000000002</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>79774.07000000002</v>
+        <v>79797.51000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>79774.07000000002</v>
+        <v>79938.82000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>79010.12</v>
+        <v>79544.06</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10437,10 +10437,10 @@
         <v>78543.44</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>79010.12</v>
+        <v>79081.94</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>79010.12</v>
+        <v>79544.06</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>87295.45</v>
+        <v>87375.67</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10570,10 +10570,10 @@
         <v>87277.05</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>87295.45</v>
+        <v>87325.23</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>87295.45</v>
+        <v>87375.67</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>82844.7</v>
+        <v>82974.71999999999</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10705,10 +10705,10 @@
         <v>82763.87</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>82844.7</v>
+        <v>82917.81999999999</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>82844.7</v>
+        <v>82974.71999999999</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>78941.17</v>
+        <v>80185.84999999999</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10837,13 +10837,13 @@
         <v>75375.45</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>78453.81999999999</v>
+        <v>79539.8</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>78941.17</v>
+        <v>80076.09</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>78941.17</v>
+        <v>80185.84999999999</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>89698.74000000001</v>
+        <v>90271</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10972,13 +10972,13 @@
         <v>88878.46000000001</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>89556.88</v>
+        <v>89781.46000000001</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>89698.74000000001</v>
+        <v>89971.35000000001</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>89698.74000000001</v>
+        <v>90271</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>56675.95</v>
+        <v>57046.7</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11104,16 +11104,16 @@
         <v>8084.91</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>47690.27</v>
+        <v>47426.7</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>54446.56</v>
+        <v>54198.25</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>56675.95</v>
+        <v>56670.41</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>56675.95</v>
+        <v>57046.7</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>70063.46000000001</v>
+        <v>75154.48000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11242,13 +11242,13 @@
         <v>9036.58</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>62744.3</v>
+        <v>63976.4</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>70063.46000000001</v>
+        <v>72745.99000000001</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>70063.46000000001</v>
+        <v>75154.48000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>75365.03</v>
+        <v>86072.89</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11380,10 +11380,10 @@
         <v>10813.72</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>75365.03</v>
+        <v>77837.33</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>75365.03</v>
+        <v>86072.89</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>9626.74</v>
+        <v>72978.25</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>9626.74</v>
+        <v>9950.969999999999</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>9626.74</v>
+        <v>72978.25</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>9251.030000000001</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>558.9266666666667</v>
+        <v>111122.2125</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>9251.030000000001</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1113911534525515</v>
+        <v>0.1123642362060093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1301951404683982</v>
+        <v>0.1245798928193725</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1273406610044345</v>
+        <v>0.1300465279977602</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1200613382101659</v>
+        <v>0.1181571753717162</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8025447302778567</v>
+        <v>0.8165699785400485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8264979200286072</v>
+        <v>0.8237296333201566</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8294802041178607</v>
+        <v>0.8275069934965743</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8143452231650098</v>
+        <v>0.8201341805357539</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.904433843639046</v>
+        <v>0.9170167950752184</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9329702108397995</v>
+        <v>0.9296012566191932</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9364810021891981</v>
+        <v>0.9375385156670031</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9184804308379586</v>
+        <v>0.9232661451139088</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9286378593845159</v>
+        <v>0.9558814507908971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9544162959103074</v>
+        <v>0.9536578838329289</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9607244354925377</v>
+        <v>0.9620277882038547</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.941350628184223</v>
+        <v>0.9547683726933821</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9486531630117124</v>
+        <v>0.9589946085325898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9670240706597723</v>
+        <v>0.9659554343595442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9721118473834266</v>
+        <v>0.9715347976877037</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9577505304290446</v>
+        <v>0.9624624358996597</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9755291713566416</v>
+        <v>0.9893460754976946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.984194885261876</v>
+        <v>0.9838964839876466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9847542264999578</v>
+        <v>0.984324043885472</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9798428688267711</v>
+        <v>0.9866137545533613</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.976566604351544</v>
+        <v>0.9910161468825469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9857479559274779</v>
+        <v>0.9852494573229179</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9889681248771457</v>
+        <v>0.9887441697820918</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.981135801112023</v>
+        <v>0.9881243885806821</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.977331901107716</v>
+        <v>0.9915129064824176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9868000312526131</v>
+        <v>0.9860220232630151</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9900362227477559</v>
+        <v>0.9898079742940288</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9820431455419568</v>
+        <v>0.9887598417966141</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9800361281626482</v>
+        <v>0.9942219394953186</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9883778542015172</v>
+        <v>0.9875619224622434</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9918406932061087</v>
+        <v>0.991536393124176</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9841893159384778</v>
+        <v>0.9908807400947163</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9821626289630432</v>
+        <v>0.9965144663969602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9896027839832546</v>
+        <v>0.9888202309539413</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9927409975277541</v>
+        <v>0.9924788914135902</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9858686693299975</v>
+        <v>0.9926524390334815</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9844850601837106</v>
+        <v>0.9976970971961792</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9919047574842931</v>
+        <v>0.9913431974160452</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9952018374399888</v>
+        <v>0.9950373858108041</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9881809814428718</v>
+        <v>0.994509998682546</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9901840575793891</v>
+        <v>0.9998848195297284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9946998856315648</v>
+        <v>0.9944021230367602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9967120240663448</v>
+        <v>0.9966141268840396</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9924368346041256</v>
+        <v>0.9971359347647544</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9957146835426782</v>
+        <v>0.9999570863889482</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9973961643685642</v>
+        <v>0.9973216394762651</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9981767906279537</v>
+        <v>0.998102970573161</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.996554714667984</v>
+        <v>0.9986376241716767</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9957226805902231</v>
+        <v>0.9999658787085577</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9974558429906788</v>
+        <v>0.9973860381848255</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9983283209940501</v>
+        <v>0.9982610381908078</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9965885082573702</v>
+        <v>0.9986742923464237</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9957226805902231</v>
+        <v>0.9999658787085577</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9974558429906788</v>
+        <v>0.9973860381848255</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.998352777022961</v>
+        <v>0.9982860210810015</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9965885082573702</v>
+        <v>0.9986742923464237</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4833,46 +4833,46 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>8.220588571803411</v>
+        <v>3.749469779809151</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.158060901670739</v>
+        <v>1.224215721767395</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.025807935674416</v>
+        <v>1.080335589109173</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.03305609611411</v>
+        <v>1.02643639057326</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.018607345223953</v>
+        <v>1.023043486694095</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.006707469461923</v>
+        <v>1.002235108992344</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.024769131527252</v>
+        <v>1.001279815572705</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.002776868823005</v>
+        <v>1.002151024226101</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000517530493438</v>
+        <v>1.001052210490769</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000085553100436</v>
+        <v>1.004411427619611</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.004081960746605</v>
+        <v>1.000277888169434</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.000283303011746</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.000667941211614</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>1.000155977785181</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>1</v>
@@ -4908,70 +4908,70 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>3.749469779809151</v>
+        <v>10.308171759591</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.224215721767395</v>
+        <v>1.331607657215829</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.080335589109173</v>
+        <v>1.017932163943904</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.02643639057326</v>
+        <v>1.006437436067595</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.023043486694095</v>
+        <v>1.003060207516981</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.002235108992344</v>
+        <v>1.002265223452181</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.001279815572705</v>
+        <v>1.002842555182494</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.002151024226101</v>
+        <v>1.000135602655119</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.001052210490769</v>
+        <v>1.000459144675303</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.004411427619611</v>
+        <v>1.000468061584559</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.000277888169434</v>
+        <v>1.000649923143457</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.000667941211614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1.000155977785181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>10.308171759591</v>
+        <v>5.278197297182762</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.331607657215829</v>
+        <v>1.105300047565976</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.017932163943904</v>
+        <v>1.067378554317443</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.006437436067595</v>
+        <v>1.026801921647559</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.003060207516981</v>
+        <v>1.003186022343536</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.002265223452181</v>
+        <v>1.015781220830222</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.002842555182494</v>
+        <v>1.006105727607923</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.000135602655119</v>
+        <v>1.005294310199945</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.000459144675303</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.000468061584559</v>
+        <v>1.000130958981249</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.000649923143457</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001139289527164</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00041867589582</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00008180890152</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,49 +5058,49 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>5.278197297182762</v>
+        <v>6.057869586511897</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.105300047565976</v>
+        <v>1.212187037913814</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.067378554317443</v>
+        <v>1.029652128022873</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.026801921647559</v>
+        <v>1.003190178624631</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.003186022343536</v>
+        <v>1.004520104607533</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.015781220830222</v>
+        <v>1.004990350425104</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.006105727607923</v>
+        <v>1.008741514564478</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.005294310199945</v>
+        <v>1.001543573689181</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.00033814609151</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000130958981249</v>
+        <v>1.001852789785731</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.000671907841499</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.001139289527164</v>
+        <v>1.000581167349316</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.00041867589582</v>
+        <v>1.000225311410886</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.00008180890152</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.002380631738693</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5133,49 +5133,49 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.057869586511897</v>
+        <v>8.074746615829826</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.212187037913814</v>
+        <v>1.107857526233367</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.029652128022873</v>
+        <v>1.026420702744499</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.003190178624631</v>
+        <v>1.009323609095061</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.004520104607533</v>
+        <v>1.012198795481602</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.004990350425104</v>
+        <v>1.000073540833987</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.008741514564478</v>
+        <v>1.000631556741316</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.001543573689181</v>
+        <v>1.001122351099095</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.00033814609151</v>
+        <v>1.000266628041842</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.001852789785731</v>
+        <v>1.000628021061065</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000671907841499</v>
+        <v>1.000943372292033</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.000581167349316</v>
+        <v>1.000398479557584</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.000225311410886</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.002380631738693</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,40 +5208,40 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>8.074746615829826</v>
+        <v>5.863456643172494</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.107857526233367</v>
+        <v>1.165654637250338</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.026420702744499</v>
+        <v>1.013012307293453</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.009323609095061</v>
+        <v>1.011274851096303</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.012198795481602</v>
+        <v>1.008534598040697</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.000073540833987</v>
+        <v>1.001053306228672</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.000631556741316</v>
+        <v>1.000216552734275</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.001122351099095</v>
+        <v>1.000501360426169</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.000266628041842</v>
+        <v>1.000609376046108</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.000628021061065</v>
+        <v>1.000671281785724</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000943372292033</v>
+        <v>1.000325202100577</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.000398479557584</v>
+        <v>1.000104962021718</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.011024143495658</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,49 +5283,49 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.863456643172494</v>
+        <v>7.236887251664378</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.165654637250338</v>
+        <v>1.215806098737808</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.013012307293453</v>
+        <v>1.084751569084278</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.011274851096303</v>
+        <v>1.011700473214103</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.008534598040697</v>
+        <v>1.006932544003311</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.001053306228672</v>
+        <v>1.009231152243366</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000216552734275</v>
+        <v>1.000248447852958</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.000501360426169</v>
+        <v>1.000774261576935</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.000609376046108</v>
+        <v>1.002121289445444</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000671281785724</v>
+        <v>1.012567944269282</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000325202100577</v>
+        <v>1.000050360137102</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.000104962021718</v>
+        <v>1.000724304640627</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.000338343543506</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.011024143495658</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>7.236887251664378</v>
+        <v>12.69604494611135</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.215806098737808</v>
+        <v>1.10650306922196</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.084751569084278</v>
+        <v>1.038384427357664</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.011700473214103</v>
+        <v>1.022477480629925</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.006932544003311</v>
+        <v>1.000989991435724</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.009231152243366</v>
+        <v>1.000343597993941</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.000248447852958</v>
+        <v>1.000632797181811</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.000774261576935</v>
+        <v>1.002649694070656</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.002121289445444</v>
+        <v>1.000672535415543</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.012567944269282</v>
+        <v>1.000153348106285</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000050360137102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.000724304640627</v>
+        <v>1.000776373485115</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000338343543506</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.000100111042811</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>12.69604494611135</v>
+        <v>7.092135734655208</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.10650306922196</v>
+        <v>1.064263086012776</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.038384427357664</v>
+        <v>1.045616468054987</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.022477480629925</v>
+        <v>1.006292054227121</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.000989991435724</v>
+        <v>1.001883996262898</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.000343597993941</v>
+        <v>1.011994929477801</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.000632797181811</v>
+        <v>1.005899368468089</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.002649694070656</v>
+        <v>1.006877818723142</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.000672535415543</v>
+        <v>1.000186675706749</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.000153348106285</v>
+        <v>1.000552990221299</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000667591822656</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000776373485115</v>
+        <v>1.017139261573388</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>1.000027019546128</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.000100111042811</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,43 +5508,43 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>7.092135734655208</v>
+        <v>3.655519730559914</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.064263086012776</v>
+        <v>1.091732827071528</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.045616468054987</v>
+        <v>1.04735145943029</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.006292054227121</v>
+        <v>1.006965660336383</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.001883996262898</v>
+        <v>1.003426769770617</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.011994929477801</v>
+        <v>1.01570467969938</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.005899368468089</v>
+        <v>1.000158260977266</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.006877818723142</v>
+        <v>1.000833084051426</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000186675706749</v>
+        <v>1.000290943904515</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.000552990221299</v>
+        <v>1.005890547483916</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.000667591822656</v>
+        <v>1.0101696136356</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.017139261573388</v>
+        <v>1.000182866546419</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.000027019546128</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>1</v>
@@ -5583,40 +5583,40 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>3.655519730559914</v>
+        <v>10.6070498945977</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.091732827071528</v>
+        <v>1.180538975425479</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.04735145943029</v>
+        <v>1.010901275046449</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.006965660336383</v>
+        <v>1.006361478517622</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.003426769770617</v>
+        <v>1.018157180772198</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.01570467969938</v>
+        <v>1.00078897206865</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.000158260977266</v>
+        <v>1.00198993846188</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.000833084051426</v>
+        <v>1.000896361079867</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000290943904515</v>
+        <v>1.000910115369906</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.005890547483916</v>
+        <v>1.004410616827678</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.0101696136356</v>
+        <v>1.005990981994265</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.000182866546419</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5658,37 +5658,37 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>10.6070498945977</v>
+        <v>5.297611711008619</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.180538975425479</v>
+        <v>1.105084907263327</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.010901275046449</v>
+        <v>1.014309056315212</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.006361478517622</v>
+        <v>1.004570739686693</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.018157180772198</v>
+        <v>1.02827956861022</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.00078897206865</v>
+        <v>1.002974406323039</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.00198993846188</v>
+        <v>1.001388513042506</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.000896361079867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.000910115369906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.004410616827678</v>
+        <v>1.000737537225201</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.005990981994265</v>
+        <v>1.000123590387286</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.297611711008619</v>
+        <v>6.521180485102179</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.105084907263327</v>
+        <v>1.099394268668286</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.014309056315212</v>
+        <v>1.009427871285836</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.004570739686693</v>
+        <v>1.01597817530147</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.02827956861022</v>
+        <v>1.002573032592166</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.002974406323039</v>
+        <v>1.002945127888458</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.001388513042506</v>
+        <v>1.000634491128215</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000351798430145</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000995806570145</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.000737537225201</v>
+        <v>1.002068551747375</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000123590387286</v>
+        <v>1.0005591620956</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>6.521180485102179</v>
+        <v>5.556953838846435</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.099394268668286</v>
+        <v>1.112830506539592</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.009427871285836</v>
+        <v>1.037028094219167</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.01597817530147</v>
+        <v>1.003591445780215</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.002573032592166</v>
+        <v>1.00921034218233</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.002945127888458</v>
+        <v>1.000250886198881</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.000634491128215</v>
+        <v>1.001146223136581</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.000351798430145</v>
+        <v>1.00680351437841</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.000995806570145</v>
+        <v>1.005799060520071</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.002068551747375</v>
+        <v>1.000811968525864</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>5.556953838846435</v>
+        <v>6.081602980000087</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.112830506539592</v>
+        <v>1.203572741593794</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.037028094219167</v>
+        <v>1.033317850168574</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.003591445780215</v>
+        <v>1.008714724745163</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.00921034218233</v>
+        <v>1.008583471063531</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.000250886198881</v>
+        <v>1.000035507187637</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.001146223136581</v>
+        <v>1.000550056449857</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.00680351437841</v>
+        <v>1.001321783097265</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.005799060520071</v>
+        <v>1.000326135151455</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>6.081602980000087</v>
+        <v>8.79738705177369</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.203572741593794</v>
+        <v>1.127231787976928</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.033317850168574</v>
+        <v>1.010315153916014</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.008714724745163</v>
+        <v>1.004523084666051</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.008583471063531</v>
+        <v>1.002064531472564</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.000035507187637</v>
+        <v>1.001856589747934</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.000550056449857</v>
+        <v>1.000684924911044</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.001321783097265</v>
+        <v>1.000342829510283</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>8.79738705177369</v>
+        <v>5.689325167411075</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.127231787976928</v>
+        <v>1.05661910964868</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.010315153916014</v>
+        <v>1.014365668741426</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.004523084666051</v>
+        <v>1.05501892536882</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.002064531472564</v>
+        <v>1.006715901668249</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.001856589747934</v>
+        <v>1.001365343099053</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.000684924911044</v>
+        <v>1.000258634150814</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>5.689325167411075</v>
+        <v>5.362565348969857</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.05661910964868</v>
+        <v>1.204264427339173</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.014365668741426</v>
+        <v>1.010159942015197</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.05501892536882</v>
+        <v>1.002115024638717</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.006715901668249</v>
+        <v>1.071672815846378</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.001365343099053</v>
+        <v>1.001812178716312</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.362565348969857</v>
+        <v>5.862863037436409</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.204264427339173</v>
+        <v>1.142857534653482</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.010159942015197</v>
+        <v>1.045635156141694</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.002115024638717</v>
+        <v>1.007645941533881</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.071672815846378</v>
+        <v>1.003442860964726</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>5.862863037436409</v>
+        <v>6.990931063689136</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.142857534653482</v>
+        <v>1.136389990963935</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.045635156141694</v>
+        <v>1.03296253915387</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.007645941533881</v>
+        <v>1.001321082548382</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>6.990931063689136</v>
+        <v>7.198016038883937</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.136389990963935</v>
+        <v>1.109483200412964</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.03296253915387</v>
+        <v>1.048310076018528</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>7.198016038883937</v>
+        <v>7.409674634734101</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.109483200412964</v>
+        <v>1.125623851860994</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>7.409674634734101</v>
+        <v>7.195955494072321</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1264688276539236</v>
+        <v>0.1282123768295343</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1273406610044345</v>
+        <v>0.1300465279977602</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1301951404683982</v>
+        <v>0.1245798928193725</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1113911534525515</v>
+        <v>0.1123642362060093</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1161949725856683</v>
+        <v>0.1174989235376618</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1219931646772109</v>
+        <v>0.1272453214975562</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1285261466140726</v>
+        <v>0.1234892315077211</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1111259062432871</v>
+        <v>0.1126876432053552</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1200613382101659</v>
+        <v>0.1181571753717162</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.363497542516994</v>
+        <v>6.307605375921922</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.513867586166961</v>
+        <v>6.363160987356976</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>6.348147227731745</v>
+        <v>6.612059255135789</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>7.204743872409137</v>
+        <v>7.267169751796681</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.93948909431933</v>
+        <v>6.894939830070152</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>6.781263437704436</v>
+        <v>6.497005570993988</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>6.418895881854087</v>
+        <v>6.670000936297627</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>7.199540579102393</v>
+        <v>7.267882055896787</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>6.776445550070441</v>
+        <v>6.939614503466235</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8047840739807484</v>
+        <v>0.8087130773496974</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8294802041178607</v>
+        <v>0.8275069934965743</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8264979200286072</v>
+        <v>0.8237296333201566</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8025447302778567</v>
+        <v>0.8165699785400485</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.8063337450729785</v>
+        <v>0.8101480078901915</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8272677872754265</v>
+        <v>0.8267135626525435</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8249959532116451</v>
+        <v>0.823673289779174</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8000554713880732</v>
+        <v>0.8190004999735008</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8143452231650098</v>
+        <v>0.8201341805357539</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.149854287795994</v>
+        <v>1.14836683857269</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.128997410113157</v>
+        <v>1.132967483097029</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.128823422577406</v>
+        <v>1.128527151405621</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.126957550797092</v>
+        <v>1.123010665558339</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.148248002779417</v>
+        <v>1.146773591424428</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.130833356463097</v>
+        <v>1.133657608528886</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.129474341832527</v>
+        <v>1.129206352479871</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.129576908676794</v>
+        <v>1.123832347745964</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.127890486687249</v>
+        <v>1.12576890848198</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.9253844182166918</v>
+        <v>0.9286992799484637</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9364810021891981</v>
+        <v>0.9375385156670031</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9329702108397995</v>
+        <v>0.9296012566191932</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.904433843639046</v>
+        <v>0.9170167950752184</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.9258711123536948</v>
+        <v>0.9290563405935808</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.93550200857847</v>
+        <v>0.9372101203750777</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9318117612682212</v>
+        <v>0.9300971111866372</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9037241861404947</v>
+        <v>0.920419254690338</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.9184804308379586</v>
+        <v>0.9232661451139088</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.033710330589129</v>
+        <v>1.034845719394306</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.025887800443005</v>
+        <v>1.026120817574549</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.022986891565598</v>
+        <v>1.025878436633386</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.026761510436279</v>
+        <v>1.042381618225968</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.033098376763639</v>
+        <v>1.034169907256216</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.025949211207393</v>
+        <v>1.026173678537688</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.024459385022796</v>
+        <v>1.026958089331121</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.029585879103587</v>
+        <v>1.042302590438031</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.024874201000939</v>
+        <v>1.034130027429677</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9565794328768057</v>
+        <v>0.9610604744592421</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9607244354925377</v>
+        <v>0.9620277882038547</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9544162959103074</v>
+        <v>0.9536578838329289</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9286378593845159</v>
+        <v>0.9558814507908971</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.956515943264947</v>
+        <v>0.9608021095874627</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9597775477840133</v>
+        <v>0.9617403567880428</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9546033039058502</v>
+        <v>0.9551707521966245</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9304616606546348</v>
+        <v>0.9593553734527808</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.941350628184223</v>
+        <v>0.9547683726933821</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.013916718092672</v>
+        <v>1.012179331821672</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.011852942914948</v>
+        <v>1.009882260783339</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.013209932398985</v>
+        <v>1.012895138534575</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.021553400418611</v>
+        <v>1.003256845018927</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.013623784593234</v>
+        <v>1.012037033914948</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.012021227952672</v>
+        <v>1.01025819477921</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.013601524455474</v>
+        <v>1.013223130583502</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.021593297180473</v>
+        <v>1.003694016240327</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.017381666408798</v>
+        <v>1.008075991776751</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9698918791774007</v>
+        <v>0.9727655488783747</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9721118473834266</v>
+        <v>0.9715347976877037</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9670240706597723</v>
+        <v>0.9659554343595442</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9486531630117124</v>
+        <v>0.9589946085325898</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9695473104359829</v>
+        <v>0.9723673171661203</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9713152524697813</v>
+        <v>0.9716060766950015</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9675873640892023</v>
+        <v>0.9678010997824625</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9505533958081863</v>
+        <v>0.9628992477825598</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9577505304290446</v>
+        <v>0.9624624358996597</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.012008425387429</v>
+        <v>1.011293948425757</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.013005066392885</v>
+        <v>1.013163961011183</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.017756346634049</v>
+        <v>1.018573372010685</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.028330700189314</v>
+        <v>1.031649257143945</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.012296879241504</v>
+        <v>1.011498748491019</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.013374178806682</v>
+        <v>1.0130833718868</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.016803349137536</v>
+        <v>1.016948320532963</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.026817749662397</v>
+        <v>1.027277192826451</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.023043523411681</v>
+        <v>1.025111314577315</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9815387534423754</v>
+        <v>0.9837519128177602</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9847542264999578</v>
+        <v>0.984324043885472</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.984194885261876</v>
+        <v>0.9838964839876466</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9755291713566416</v>
+        <v>0.9893460754976946</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9814697166313394</v>
+        <v>0.9835483243871003</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9843057963339701</v>
+        <v>0.9843179603238774</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9838460723890617</v>
+        <v>0.9842037030337298</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9760450988177117</v>
+        <v>0.9891644362367694</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9798428688267711</v>
+        <v>0.9866137545533613</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.004585803506931</v>
+        <v>1.004289954031238</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004279137132688</v>
+        <v>1.004490519076596</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.001578011315502</v>
+        <v>1.001375117562965</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.001063456660614</v>
+        <v>1.001688055803943</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.004477634008476</v>
+        <v>1.004205673411498</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.004045374846401</v>
+        <v>1.004108614220371</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.001571310074167</v>
+        <v>1.001377605473046</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.001085813344875</v>
+        <v>1.001678037187766</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.001320733988058</v>
+        <v>1.001531586683454</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9860398973001</v>
+        <v>0.9879721633018903</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9889681248771457</v>
+        <v>0.9887441697820918</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9857479559274779</v>
+        <v>0.9852494573229179</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.976566604351544</v>
+        <v>0.9910161468825469</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9858643788128175</v>
+        <v>0.9876848074238984</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9882876822436261</v>
+        <v>0.9883621430930304</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.985391999634036</v>
+        <v>0.985559547441621</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9771049016112074</v>
+        <v>0.9908242909455908</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.981135801112023</v>
+        <v>0.9881243885806821</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.003718284988084</v>
+        <v>1.001959368115205</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.001080012432901</v>
+        <v>1.001075914826554</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.001067286337049</v>
+        <v>1.000784132317308</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.000783660584708</v>
+        <v>1.000501262871885</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.003407051502391</v>
+        <v>1.001965257539071</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.001181760923816</v>
+        <v>1.001150684041275</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.001065691188347</v>
+        <v>1.000777140469836</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000793734832494</v>
+        <v>1.000497871837238</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.000925473460878</v>
+        <v>1.000642697594597</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9897062746478831</v>
+        <v>0.9899079644573745</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9900362227477559</v>
+        <v>0.9898079742940288</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9868000312526131</v>
+        <v>0.9860220232630151</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.977331901107716</v>
+        <v>0.9915129064824176</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.989223269525806</v>
+        <v>0.9896258624379146</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9894556020079909</v>
+        <v>0.9894994356380875</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9864421232051139</v>
+        <v>0.9863254656513711</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9778804638066172</v>
+        <v>0.9913175944557041</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9820431455419568</v>
+        <v>0.9887598417966141</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.002024682782665</v>
+        <v>1.001881322393041</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.00182263074511</v>
+        <v>1.001746216311684</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001598928758546</v>
+        <v>1.001561729011014</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.002766948517558</v>
+        <v>1.002732221633414</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.002127087907904</v>
+        <v>1.001974960450859</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.001972966718524</v>
+        <v>1.001872904703616</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.001701090172852</v>
+        <v>1.001619381082661</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.002825698635273</v>
+        <v>1.002822708995319</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.002182938638052</v>
+        <v>1.002146975322214</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.991710115902058</v>
+        <v>0.9917703004779573</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9918406932061087</v>
+        <v>0.991536393124176</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9883778542015172</v>
+        <v>0.9875619224622434</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9800361281626482</v>
+        <v>0.9942219394953186</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9913274343806314</v>
+        <v>0.9915803343773764</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.99140776498021</v>
+        <v>0.9913526737853197</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9881201502069856</v>
+        <v>0.9879227024517943</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9806436592986556</v>
+        <v>0.9941157955467924</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9841893159384778</v>
+        <v>0.9908807400947163</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000852164484247</v>
+        <v>1.000852458328187</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000907710611001</v>
+        <v>1.000950543314345</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.001239333496325</v>
+        <v>1.001274156549658</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.002169818784519</v>
+        <v>1.002305850243865</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.000947964184756</v>
+        <v>1.000935204495291</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.001015881425986</v>
+        <v>1.001043059355274</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.001363767011898</v>
+        <v>1.001387010252682</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.002264955696739</v>
+        <v>1.00237366741389</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.001704576140422</v>
+        <v>1.001790003396762</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9925552160414987</v>
+        <v>0.9926157433302483</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9927409975277541</v>
+        <v>0.9924788914135902</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9896027839832546</v>
+        <v>0.9888202309539413</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9821626289630432</v>
+        <v>0.9965144663969602</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9922671772837903</v>
+        <v>0.9925076647635279</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9924149177142316</v>
+        <v>0.9923867134660873</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9894677158716293</v>
+        <v>0.989292961368952</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9828647737412548</v>
+        <v>0.9964754958163152</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9858686693299975</v>
+        <v>0.9926524390334815</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.002431158928022</v>
+        <v>1.002559432036779</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002478833772719</v>
+        <v>1.002577882934689</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002326159079477</v>
+        <v>1.002551491548337</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.002364609640177</v>
+        <v>1.00118676731658</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.002473544985672</v>
+        <v>1.002525431801774</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.002511054089947</v>
+        <v>1.002539713001723</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.002302265268626</v>
+        <v>1.002412035338555</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.002405568600085</v>
+        <v>1.001206019166147</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.002345384359827</v>
+        <v>1.001869129432459</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9949682755165324</v>
+        <v>0.9951562758639386</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9952018374399888</v>
+        <v>0.9950373858108041</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9919047574842931</v>
+        <v>0.9913431974160452</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9844850601837106</v>
+        <v>0.9976970971961792</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.994721594784608</v>
+        <v>0.9950141751836264</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9949069252522825</v>
+        <v>0.9949070909050138</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9917457330283072</v>
+        <v>0.9916791709519581</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9852291223790965</v>
+        <v>0.9976772643628654</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9881809814428718</v>
+        <v>0.994509998682546</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001752566984015</v>
+        <v>1.001464946818363</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001517467682979</v>
+        <v>1.001584604855777</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.002817940055415</v>
+        <v>1.00308563737431</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.005788810441283</v>
+        <v>1.002192772074508</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001842491713117</v>
+        <v>1.001571507201501</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001655869293659</v>
+        <v>1.001679308787506</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.002833689662818</v>
+        <v>1.002918489989234</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.005428062005717</v>
+        <v>1.00222457815905</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.004303375248349</v>
+        <v>1.002639204724409</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9967120240663448</v>
+        <v>0.9966141268840396</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9967120240663448</v>
+        <v>0.9966141268840396</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9946998856315648</v>
+        <v>0.9944021230367602</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9901840575793891</v>
+        <v>0.9998848195297284</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9965543610798566</v>
+        <v>0.9965778471255229</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9965543610798566</v>
+        <v>0.9965778471255229</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9945560326601334</v>
+        <v>0.9945733766849137</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9905770071452085</v>
+        <v>0.9998966754149482</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9924368346041256</v>
+        <v>0.9971359347647544</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001469598566327</v>
+        <v>1.001493901851237</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001469598566327</v>
+        <v>1.001493901851237</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.002710645467992</v>
+        <v>1.002935951534968</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.005585452442861</v>
+        <v>1.00007227518391</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001777500642757</v>
+        <v>1.001753892058444</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001777500642757</v>
+        <v>1.001753892058444</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.003154628044544</v>
+        <v>1.003137134374258</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.005774042706602</v>
+        <v>1.000060955515473</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.004148048955427</v>
+        <v>1.001504113359438</v>
       </c>
     </row>
     <row r="14">
@@ -7471,47 +7471,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9981767906279537</v>
+        <v>0.998102970573161</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9981767906279537</v>
+        <v>0.998102970573161</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9973961643685642</v>
+        <v>0.9973216394762651</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9957146835426782</v>
+        <v>0.9999570863889482</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9983257370972178</v>
+        <v>0.9983257370972176</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9983257370972178</v>
+        <v>0.9983257370972176</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0.9976934870126337</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9962966410886431</v>
+        <v>0.9999576246322176</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.996554714667984</v>
+        <v>0.9986376241716767</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000151807142301</v>
+        <v>1.000158368046491</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000151807142301</v>
+        <v>1.000158368046491</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000059834421112</v>
+        <v>1.000064571654731</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000008031464914</v>
+        <v>1.000008792696936</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.000152481055269</v>
@@ -7526,7 +7526,7 @@
         <v>1.000009006515376</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000033932943013</v>
+        <v>1.000036682175834</v>
       </c>
     </row>
     <row r="15">
@@ -7535,41 +7535,41 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9983283209940501</v>
+        <v>0.9982610381908078</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9983283209940501</v>
+        <v>0.9982610381908078</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9974558429906788</v>
+        <v>0.9973860381848255</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9957226805902231</v>
+        <v>0.9999658787085577</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9984779628591123</v>
+        <v>0.9984779628591121</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9984779628591123</v>
+        <v>0.9984779628591121</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0.9977542404084544</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9963056142496604</v>
+        <v>0.9999666307659393</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9965885082573702</v>
+        <v>0.9986742923464237</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000024496979998</v>
+        <v>1.000025026410165</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000024496979998</v>
+        <v>1.000025026410165</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1</v>
@@ -7599,47 +7599,47 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.998352777022961</v>
+        <v>0.9982860210810015</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.998352777022961</v>
+        <v>0.9982860210810015</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9974558429906788</v>
+        <v>0.9973860381848255</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9957226805902231</v>
+        <v>0.9999658787085577</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9985017053357654</v>
+        <v>0.9985017053357652</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9985017053357654</v>
+        <v>0.9985017053357652</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0.9977542404084544</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9963056142496604</v>
+        <v>0.9999666307659393</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9965885082573702</v>
+        <v>0.9986742923464237</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.001649940797431</v>
+        <v>1.001716921686575</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.001649940797431</v>
+        <v>1.001716921686575</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.002550646253866</v>
+        <v>1.002620812519024</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.004295693462804</v>
+        <v>1.000034122455745</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.001500542919685</v>
@@ -7651,10 +7651,10 @@
         <v>1.002250814379527</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.003708084846156</v>
+        <v>1.000033370347604</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.003423169858335</v>
+        <v>1.001327467487384</v>
       </c>
     </row>
     <row r="17">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>146003.0475</v>
+        <v>146622.8866666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>13110.38</v>
+        <v>25423.4</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>107775.04</v>
+        <v>95324.26999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>124810.06</v>
+        <v>116697.47</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>128031.15</v>
+        <v>126072.43</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>132263.36</v>
+        <v>129405.33</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>134724.43</v>
+        <v>132387.28</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>135628.09</v>
+        <v>132683.18</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>138987.48</v>
+        <v>132852.99</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>139373.4300000001</v>
+        <v>133138.76</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>139445.5600000001</v>
+        <v>133278.85</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>139457.49</v>
+        <v>133866.8</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>140026.7500000001</v>
+        <v>133904</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>133904</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>133993.44</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>140066.4200000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>146622.8866666667</v>
+        <v>146738.5158333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>25423.4</v>
+        <v>9112.969999999999</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>95324.26999999999</v>
+        <v>93938.06</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>116697.47</v>
+        <v>125088.64</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>126072.43</v>
+        <v>127331.75</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>129405.33</v>
+        <v>128151.44</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>132387.28</v>
+        <v>128543.61</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>132683.18</v>
+        <v>128834.79</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>132852.99</v>
+        <v>129201.01</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>133138.76</v>
+        <v>129218.53</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>133278.85</v>
+        <v>129277.86</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>133866.8</v>
+        <v>129338.37</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>133904</v>
+        <v>129422.43</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>133904</v>
+        <v>129422.43</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>133993.44</v>
+        <v>129422.43</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>146738.5158333333</v>
+        <v>144800.61</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>9112.969999999999</v>
+        <v>17461.78</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>93938.06</v>
+        <v>92166.72</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>125088.64</v>
+        <v>101871.88</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>127331.75</v>
+        <v>108735.86</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>128151.44</v>
+        <v>111650.19</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>128543.61</v>
+        <v>112005.91</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>128834.79</v>
+        <v>113773.5</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>129201.01</v>
+        <v>114468.17</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>129218.53</v>
+        <v>115074.2</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>129277.86</v>
+        <v>115074.2</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>129338.37</v>
+        <v>115089.27</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115089.27</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115220.39</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115268.63</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>144800.61</v>
+        <v>141149.4075</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>17461.78</v>
+        <v>13761.46</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>92166.72</v>
+        <v>83365.13</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>101871.88</v>
+        <v>101054.13</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>108735.86</v>
+        <v>104050.6</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>111650.19</v>
+        <v>104382.54</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>112005.91</v>
+        <v>104854.36</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>113773.5</v>
+        <v>105377.62</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>114468.17</v>
+        <v>106298.78</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>115074.2</v>
+        <v>106462.86</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>115074.2</v>
+        <v>106498.86</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>115089.27</v>
+        <v>106696.18</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>115089.27</v>
+        <v>106767.87</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>115220.39</v>
+        <v>106829.92</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>115268.63</v>
+        <v>106853.99</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>115278.06</v>
+        <v>106853.99</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>141149.4075</v>
+        <v>134899.9383333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>13761.46</v>
+        <v>14582.6</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>83365.13</v>
+        <v>117750.8</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>101054.13</v>
+        <v>130451.11</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>104050.6</v>
+        <v>133897.72</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>104382.54</v>
+        <v>135146.13</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>104854.36</v>
+        <v>136794.75</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>105377.62</v>
+        <v>136804.81</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>106298.78</v>
+        <v>136891.21</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>106462.86</v>
+        <v>137044.85</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>106498.86</v>
+        <v>137081.39</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>106696.18</v>
+        <v>137167.48</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>106767.87</v>
+        <v>137296.88</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>106829.92</v>
+        <v>137351.59</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>106853.99</v>
+        <v>137351.59</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>106853.99</v>
+        <v>137351.59</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>134899.9383333333</v>
+        <v>132542.0908333334</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>14582.6</v>
+        <v>20734.22</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>117750.8</v>
+        <v>121574.2</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>130451.11</v>
+        <v>141713.53</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>133897.72</v>
+        <v>143557.55</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>135146.13</v>
+        <v>145176.14</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>136794.75</v>
+        <v>146415.16</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>136804.81</v>
+        <v>146569.38</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>136891.21</v>
+        <v>146601.12</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>137044.85</v>
+        <v>146674.62</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>137081.39</v>
+        <v>146764</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>137167.48</v>
+        <v>146862.52</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>137296.88</v>
+        <v>146910.28</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>132542.0908333334</v>
+        <v>129006.9441666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>20734.22</v>
+        <v>12112.64</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>121574.2</v>
+        <v>87657.81</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>141713.53</v>
+        <v>106574.9</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>143557.55</v>
+        <v>115607.29</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>145176.14</v>
+        <v>116959.95</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>146415.16</v>
+        <v>117770.78</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>146569.38</v>
+        <v>118857.94</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>146601.12</v>
+        <v>118887.47</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>146674.62</v>
+        <v>118979.52</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>146764</v>
+        <v>119231.91</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>146862.52</v>
+        <v>120730.41</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>146910.28</v>
+        <v>120736.49</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>146925.7</v>
+        <v>120823.94</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>146925.7</v>
+        <v>120864.82</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>146925.7</v>
+        <v>120864.82</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>120864.82</v>
+        <v>111886.97</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>129006.9441666667</v>
+        <v>126833.945</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>12112.64</v>
+        <v>7454.26</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>87657.81</v>
+        <v>94639.62</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>106574.9</v>
+        <v>104719.03</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>115607.29</v>
+        <v>108738.61</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>116959.95</v>
+        <v>111182.78</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>117770.78</v>
+        <v>111292.85</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>118857.94</v>
+        <v>111331.09</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>118887.47</v>
+        <v>111401.54</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>118979.52</v>
+        <v>111696.72</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>119231.91</v>
+        <v>111771.84</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>120730.41</v>
+        <v>111788.98</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>120736.49</v>
+        <v>111788.98</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>120823.94</v>
+        <v>111875.77</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>120864.82</v>
+        <v>111886.97</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>120864.82</v>
+        <v>111886.97</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>111886.97</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>126833.945</v>
+        <v>124708.8225</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>7454.26</v>
+        <v>11494.78</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>94639.62</v>
+        <v>81522.53999999999</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>104719.03</v>
+        <v>86761.42999999999</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>108738.61</v>
+        <v>90719.17999999999</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>111182.78</v>
+        <v>91289.98999999999</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>111292.85</v>
+        <v>91461.98</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>111331.09</v>
+        <v>92559.06</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>111401.54</v>
+        <v>93105.09999999999</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>111696.72</v>
+        <v>93745.45999999999</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>111771.84</v>
+        <v>93762.95999999999</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>111788.98</v>
+        <v>93814.81</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>111788.98</v>
+        <v>93877.44</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>111875.77</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>111875.77</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>111875.77</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>111886.97</v>
+        <v>95489.01000000001</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>95489.01000000001</v>
+        <v>113874.34</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>124708.8225</v>
+        <v>123862.115</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>11494.78</v>
+        <v>26086.69</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>81522.53999999999</v>
+        <v>95360.41</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>86761.42999999999</v>
+        <v>104108.09</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>90719.17999999999</v>
+        <v>109037.76</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>91289.98999999999</v>
+        <v>109797.28</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>91461.98</v>
+        <v>110173.53</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>92559.06</v>
+        <v>111903.77</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>93105.09999999999</v>
+        <v>111921.48</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>93745.45999999999</v>
+        <v>112014.72</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>93762.95999999999</v>
+        <v>112047.31</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>93814.81</v>
+        <v>112707.33</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>93877.44</v>
+        <v>113853.52</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>95486.43000000001</v>
+        <v>113874.34</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>95489.01000000001</v>
+        <v>113874.34</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>95489.01000000001</v>
+        <v>113874.34</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>113874.34</v>
+        <v>84064.55999999998</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>123862.115</v>
+        <v>124027.4041666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>26086.69</v>
+        <v>6385.06</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>95360.41</v>
+        <v>67726.64999999999</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>104108.09</v>
+        <v>79953.95</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>109037.76</v>
+        <v>80825.55</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>109797.28</v>
+        <v>81339.72</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>110173.53</v>
+        <v>82816.62</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>111903.77</v>
+        <v>82881.95999999999</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>111921.48</v>
+        <v>83046.88999999998</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>112014.72</v>
+        <v>83121.32999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>112047.31</v>
+        <v>83196.97999999998</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>112707.33</v>
+        <v>83563.92999999998</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>113853.52</v>
+        <v>84064.55999999998</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>113874.34</v>
+        <v>84064.55999999998</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>113874.34</v>
+        <v>84064.55999999998</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>84064.55999999998</v>
+        <v>90147.59999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>124027.4041666667</v>
+        <v>125579.33</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>6385.06</v>
+        <v>14620.09</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>67726.64999999999</v>
+        <v>77451.56</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>79953.95</v>
+        <v>85590.55</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>80825.55</v>
+        <v>86815.27</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>81339.72</v>
+        <v>87212.08</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>82816.62</v>
+        <v>89678.39999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>82881.95999999999</v>
+        <v>89945.14</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>83046.88999999998</v>
+        <v>90070.03</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>83121.32999999999</v>
+        <v>90070.03</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>83196.97999999998</v>
+        <v>90070.03</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>83563.92999999998</v>
+        <v>90136.45999999999</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>84064.55999999998</v>
+        <v>90147.59999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>84064.55999999998</v>
+        <v>90147.59999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>90147.59999999999</v>
+        <v>80164.68000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>125579.33</v>
+        <v>126105.3775</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>14620.09</v>
+        <v>10793.19</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>77451.56</v>
+        <v>70384.34</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>85590.55</v>
+        <v>77380.14</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>86815.27</v>
+        <v>78109.67</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>87212.08</v>
+        <v>79357.72</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>89678.39999999999</v>
+        <v>79561.91</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>89945.14</v>
+        <v>79796.23000000001</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>90070.03</v>
+        <v>79846.86000000002</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>90070.03</v>
+        <v>79874.95000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>90070.03</v>
+        <v>79954.49000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>90136.45999999999</v>
+        <v>80119.88</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>90147.59999999999</v>
+        <v>80164.68000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>80119.88</v>
+        <v>80215.96999999999</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>126105.3775</v>
+        <v>125926.0375</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>10793.19</v>
+        <v>12168.89</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>70384.34</v>
+        <v>67621.95999999999</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>77380.14</v>
+        <v>75251.78</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>78109.67</v>
+        <v>78038.20999999999</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>79357.72</v>
+        <v>78318.48</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>79561.91</v>
+        <v>79039.81999999999</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>79796.23000000001</v>
+        <v>79059.64999999999</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>79846.86000000002</v>
+        <v>79150.26999999999</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>79874.95000000001</v>
+        <v>79688.76999999999</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>79954.49000000001</v>
+        <v>80150.88999999998</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>80119.88</v>
+        <v>80215.96999999999</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>80150.88999999998</v>
+        <v>87783.64999999998</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>125926.0375</v>
+        <v>123026.6875</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>12168.89</v>
+        <v>11382.55</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>67621.95999999999</v>
+        <v>69224.14999999999</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>75251.78</v>
+        <v>83316.29999999999</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>78038.20999999999</v>
+        <v>86092.21999999999</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>78318.48</v>
+        <v>86842.48999999999</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>79039.81999999999</v>
+        <v>87587.89999999999</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>79059.64999999999</v>
+        <v>87591.00999999999</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>79150.26999999999</v>
+        <v>87639.18999999999</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>79688.76999999999</v>
+        <v>87755.02999999998</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>80150.88999999998</v>
+        <v>87783.64999999998</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>87755.02999999998</v>
+        <v>83160.19999999998</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>123026.6875</v>
+        <v>122216.725</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>11382.55</v>
+        <v>8222.129999999999</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>69224.14999999999</v>
+        <v>72333.25999999999</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>83316.29999999999</v>
+        <v>81536.34999999999</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>86092.21999999999</v>
+        <v>82377.40999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>86842.48999999999</v>
+        <v>82750.00999999999</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>87587.89999999999</v>
+        <v>82920.84999999999</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>87591.00999999999</v>
+        <v>83074.79999999999</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>87639.18999999999</v>
+        <v>83131.69999999998</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>87755.02999999998</v>
+        <v>83160.19999999998</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>83131.69999999998</v>
+        <v>80520.62999999999</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>122216.725</v>
+        <v>119111.5425</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>8222.129999999999</v>
+        <v>12412.56</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>72333.25999999999</v>
+        <v>70619.09</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>81536.34999999999</v>
+        <v>74617.48</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>82377.40999999999</v>
+        <v>75689.40999999999</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>82750.00999999999</v>
+        <v>79853.75999999999</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>82920.84999999999</v>
+        <v>80390.04999999999</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>83074.79999999999</v>
+        <v>80499.80999999998</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>83131.69999999998</v>
+        <v>80520.62999999999</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>80499.80999999998</v>
+        <v>96594.58</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>119111.5425</v>
+        <v>117143.3375</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>12412.56</v>
+        <v>13762.65</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>70619.09</v>
+        <v>73803.11</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>74617.48</v>
+        <v>88878.46000000001</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>75689.40999999999</v>
+        <v>89781.46000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>79853.75999999999</v>
+        <v>89971.35000000001</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>80390.04999999999</v>
+        <v>96419.85000000001</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>80499.80999999998</v>
+        <v>96594.58</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>96419.85000000001</v>
+        <v>57274.04000000001</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>117143.3375</v>
+        <v>117481.2183333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>13762.65</v>
+        <v>8084.91</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>73803.11</v>
+        <v>47400.72</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>88878.46000000001</v>
+        <v>54172.27</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>89781.46000000001</v>
+        <v>56644.43000000001</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>89971.35000000001</v>
+        <v>57077.53000000001</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>96419.85000000001</v>
+        <v>57274.04000000001</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>57077.53000000001</v>
+        <v>75575.69000000002</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>117481.2183333333</v>
+        <v>115153.365</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>8084.91</v>
+        <v>9197.33</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>47400.72</v>
+        <v>64297.9</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>54172.27</v>
+        <v>73067.49000000001</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>56644.43000000001</v>
+        <v>75475.98000000001</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>57077.53000000001</v>
+        <v>75575.69000000002</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>75475.98000000001</v>
+        <v>90531.23000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>115153.365</v>
+        <v>113770.3091666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>9197.33</v>
+        <v>10813.72</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>64297.9</v>
+        <v>77837.33</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>73067.49000000001</v>
+        <v>86359.21000000001</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>75475.98000000001</v>
+        <v>90531.23000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>86359.21000000001</v>
+        <v>82996.13</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>113770.3091666667</v>
+        <v>112037.265</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>75</v>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>10813.72</v>
+        <v>9950.969999999999</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>77837.33</v>
+        <v>73733.45</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>86359.21000000001</v>
+        <v>82996.13</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>73733.45</v>
+        <v>67726.75</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>112037.265</v>
+        <v>111122.2125</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>9950.969999999999</v>
+        <v>9411.780000000001</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>73733.45</v>
+        <v>67726.75</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>9411.780000000001</v>
+        <v>9123.309999999999</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>111122.2125</v>
+        <v>109567.8</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>9411.780000000001</v>
+        <v>9123.309999999999</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
